--- a/CRONOGRAMA_PAGINA_SURVILLANCE.xlsx
+++ b/CRONOGRAMA_PAGINA_SURVILLANCE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AB0EBD-EE02-4348-8CCD-FB5AE22B9E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E57AF6-4034-43BA-BC7A-9B299CC4D28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proyecto" sheetId="1" r:id="rId1"/>
@@ -827,27 +827,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -871,6 +850,27 @@
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1586,7 +1586,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -2037,10 +2037,10 @@
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.1111111111111111</c:v>
@@ -4491,8 +4491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:DF28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.28515625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4530,17 +4530,17 @@
     </row>
     <row r="2" spans="2:110" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:110" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
       <c r="J3" s="63"/>
     </row>
     <row r="4" spans="2:110" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4562,10 +4562,10 @@
       <c r="T4" s="17"/>
     </row>
     <row r="5" spans="2:110" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="64"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="41">
         <v>8</v>
       </c>
@@ -4581,10 +4581,10 @@
       <c r="T5" s="17"/>
     </row>
     <row r="6" spans="2:110" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="64"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="62">
         <f>IF(D4="","",D4+D5)</f>
         <v>45246</v>
@@ -4601,28 +4601,28 @@
       <c r="T6" s="17"/>
     </row>
     <row r="7" spans="2:110" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L7" s="68" t="s">
+      <c r="L7" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="68"/>
-      <c r="O7" s="66" t="s">
+      <c r="M7" s="76"/>
+      <c r="O7" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
       <c r="DB7" s="11"/>
       <c r="DC7" s="11"/>
     </row>
@@ -5035,43 +5035,43 @@
       <c r="DF8" s="16"/>
     </row>
     <row r="9" spans="2:110" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="71">
+      <c r="B9" s="64">
         <f>IF(C9="","",1)</f>
         <v>1</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="66">
         <v>3</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="67">
         <v>0</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="68">
         <f>IF(OR(C9="",D9="",G9=""),"",D4+G9)</f>
         <v>45238</v>
       </c>
-      <c r="I9" s="75">
+      <c r="I9" s="68">
         <f>IF(H9="","",H9+D9-1)</f>
         <v>45240</v>
       </c>
-      <c r="J9" s="72" t="s">
+      <c r="J9" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="73" t="s">
+      <c r="K9" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="76">
+      <c r="L9" s="69">
         <v>45240</v>
       </c>
-      <c r="M9" s="77">
+      <c r="M9" s="70">
         <f>IF(H9="","",IF(AND(K9="Completado",L9=""),"Completar fecha de finalización",IF(AND(K9="Completado",L9&lt;&gt;""),L9-H9+1,"")))</f>
         <v>3</v>
       </c>
@@ -5445,45 +5445,45 @@
       </c>
     </row>
     <row r="10" spans="2:110" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="71">
+      <c r="B10" s="64">
         <f>IF(C10="","",B9+1)</f>
         <v>2</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="66">
+        <v>5</v>
+      </c>
+      <c r="E10" s="71">
         <v>1</v>
       </c>
-      <c r="E10" s="78">
-        <v>1</v>
-      </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="74">
+      <c r="G10" s="67">
         <v>5</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="68">
         <f t="shared" ref="H10:H28" si="5">IF(OR(C10="",D10="",G10="",F10="",E10=""),"",IF(F10="FC",VLOOKUP(E10,$B$9:$M$28,8,FALSE)+G10,IF(F10="CC",VLOOKUP(E10,$B$9:$M$28,7,FALSE)+G10,"")))</f>
         <v>45243</v>
       </c>
-      <c r="I10" s="75">
+      <c r="I10" s="68">
         <f>IF(H10="","",H10+D10-1)</f>
-        <v>45243</v>
-      </c>
-      <c r="J10" s="72" t="s">
+        <v>45247</v>
+      </c>
+      <c r="J10" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="73" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="76">
-        <v>45243</v>
-      </c>
-      <c r="M10" s="77">
+      <c r="K10" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="69">
+        <v>45247</v>
+      </c>
+      <c r="M10" s="70" t="str">
         <f t="shared" ref="M10:M28" si="6">IF(H10="","",IF(AND(K10="Completado",L10=""),"Completar fecha de finalización",IF(AND(K10="Completado",L10&lt;&gt;""),L10-H10+1,"")))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="O10" s="22" t="str">
         <f t="shared" ref="O10:AD28" si="7">IF(AND(O$8&gt;=$H10,O$8&lt;=$I10),"x","")</f>
@@ -5511,19 +5511,19 @@
       </c>
       <c r="U10" s="23" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="V10" s="23" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="W10" s="23" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="X10" s="23" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="Y10" s="23" t="str">
         <f t="shared" si="2"/>
@@ -5855,43 +5855,43 @@
       </c>
     </row>
     <row r="11" spans="2:110" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="71">
+      <c r="B11" s="64">
         <f t="shared" ref="B11:B19" si="9">IF(C11="","",B10+1)</f>
         <v>3</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="66">
         <v>3</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="71">
         <v>1</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="74">
+      <c r="G11" s="67">
         <v>1</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="68">
         <f t="shared" si="5"/>
         <v>45239</v>
       </c>
-      <c r="I11" s="75">
+      <c r="I11" s="68">
         <f t="shared" ref="I11:I27" si="10">IF(H11="","",H11+D11-1)</f>
         <v>45241</v>
       </c>
-      <c r="J11" s="72" t="s">
+      <c r="J11" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="73" t="s">
+      <c r="K11" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="76">
+      <c r="L11" s="69">
         <v>45241</v>
       </c>
-      <c r="M11" s="77">
+      <c r="M11" s="70">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -6265,43 +6265,43 @@
       </c>
     </row>
     <row r="12" spans="2:110" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="71">
+      <c r="B12" s="64">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="66">
         <v>5</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="71">
         <v>3</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="74">
+      <c r="G12" s="67">
         <v>0</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="68">
         <f t="shared" si="5"/>
         <v>45239</v>
       </c>
-      <c r="I12" s="75">
+      <c r="I12" s="68">
         <f t="shared" si="10"/>
         <v>45243</v>
       </c>
-      <c r="J12" s="72" t="s">
+      <c r="J12" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="73" t="s">
+      <c r="K12" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="76">
+      <c r="L12" s="69">
         <v>45243</v>
       </c>
-      <c r="M12" s="77">
+      <c r="M12" s="70">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -6675,43 +6675,43 @@
       </c>
     </row>
     <row r="13" spans="2:110" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="71">
+      <c r="B13" s="64">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="66">
         <v>4</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="71">
         <v>3</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="67">
         <v>1</v>
       </c>
-      <c r="H13" s="75">
+      <c r="H13" s="68">
         <f t="shared" si="5"/>
         <v>45240</v>
       </c>
-      <c r="I13" s="75">
+      <c r="I13" s="68">
         <f t="shared" si="10"/>
         <v>45243</v>
       </c>
-      <c r="J13" s="72" t="s">
+      <c r="J13" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="73" t="s">
+      <c r="K13" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="76">
+      <c r="L13" s="69">
         <v>45243</v>
       </c>
-      <c r="M13" s="77">
+      <c r="M13" s="70">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -7085,43 +7085,43 @@
       </c>
     </row>
     <row r="14" spans="2:110" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="71">
+      <c r="B14" s="64">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="66">
         <v>3</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="71">
         <v>3</v>
       </c>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="74">
+      <c r="G14" s="67">
         <v>0</v>
       </c>
-      <c r="H14" s="75">
+      <c r="H14" s="68">
         <f t="shared" si="5"/>
         <v>45239</v>
       </c>
-      <c r="I14" s="75">
+      <c r="I14" s="68">
         <f t="shared" si="10"/>
         <v>45241</v>
       </c>
-      <c r="J14" s="72" t="s">
+      <c r="J14" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="73" t="s">
+      <c r="K14" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="76">
+      <c r="L14" s="69">
         <v>45241</v>
       </c>
-      <c r="M14" s="77">
+      <c r="M14" s="70">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -7495,43 +7495,43 @@
       </c>
     </row>
     <row r="15" spans="2:110" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="71">
+      <c r="B15" s="64">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="66">
         <v>4</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E15" s="71">
         <v>3</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="74">
+      <c r="G15" s="67">
         <v>0</v>
       </c>
-      <c r="H15" s="75">
+      <c r="H15" s="68">
         <f t="shared" si="5"/>
         <v>45239</v>
       </c>
-      <c r="I15" s="75">
+      <c r="I15" s="68">
         <f t="shared" si="10"/>
         <v>45242</v>
       </c>
-      <c r="J15" s="72" t="s">
+      <c r="J15" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="73" t="s">
+      <c r="K15" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="76">
+      <c r="L15" s="69">
         <v>45243</v>
       </c>
-      <c r="M15" s="77" t="str">
+      <c r="M15" s="70" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7905,45 +7905,45 @@
       </c>
     </row>
     <row r="16" spans="2:110" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="71">
+      <c r="B16" s="64">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="66">
         <v>4</v>
       </c>
-      <c r="E16" s="78">
-        <v>3</v>
-      </c>
-      <c r="F16" s="73" t="s">
+      <c r="E16" s="71">
+        <v>5</v>
+      </c>
+      <c r="F16" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="74">
+      <c r="G16" s="67">
         <v>0</v>
       </c>
-      <c r="H16" s="75">
+      <c r="H16" s="68">
         <f t="shared" si="5"/>
-        <v>45239</v>
-      </c>
-      <c r="I16" s="75">
+        <v>45240</v>
+      </c>
+      <c r="I16" s="68">
         <f t="shared" si="10"/>
-        <v>45242</v>
-      </c>
-      <c r="J16" s="72" t="s">
+        <v>45243</v>
+      </c>
+      <c r="J16" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="L16" s="76">
+      <c r="K16" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="69">
         <v>45243</v>
       </c>
-      <c r="M16" s="77" t="str">
+      <c r="M16" s="70">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="O16" s="22" t="str">
         <f t="shared" si="7"/>
@@ -7951,23 +7951,23 @@
       </c>
       <c r="P16" s="23" t="str">
         <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q16" s="23" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="Q16" s="23" t="str">
+      <c r="R16" s="23" t="str">
         <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="R16" s="23" t="str">
+      <c r="S16" s="23" t="str">
         <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="S16" s="23" t="str">
+      <c r="T16" s="23" t="str">
         <f t="shared" si="11"/>
         <v>x</v>
-      </c>
-      <c r="T16" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
       </c>
       <c r="U16" s="23" t="str">
         <f t="shared" si="11"/>
@@ -8315,43 +8315,43 @@
       </c>
     </row>
     <row r="17" spans="2:107" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="71">
+      <c r="B17" s="64">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="73">
+      <c r="D17" s="66">
         <v>5</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="71">
         <v>3</v>
       </c>
-      <c r="F17" s="73" t="s">
+      <c r="F17" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="74">
+      <c r="G17" s="67">
         <v>1</v>
       </c>
-      <c r="H17" s="75">
+      <c r="H17" s="68">
         <f t="shared" si="5"/>
         <v>45240</v>
       </c>
-      <c r="I17" s="75">
+      <c r="I17" s="68">
         <f t="shared" si="10"/>
         <v>45244</v>
       </c>
-      <c r="J17" s="72" t="s">
+      <c r="J17" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="K17" s="73" t="s">
+      <c r="K17" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="76">
+      <c r="L17" s="69">
         <v>45244</v>
       </c>
-      <c r="M17" s="77" t="str">
+      <c r="M17" s="70" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="R7" s="38">
         <f>IF(COUNTA(Proyecto!$K$9:$K$28)=0,NA(),COUNTIF(Proyecto!$K$9:$K$28,Reportes!Q7)/COUNTA(Proyecto!$K$9:$K$28))</f>
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13219,14 +13219,14 @@
       </c>
       <c r="O8" s="35">
         <f>IF(Proyecto!D10="","",Proyecto!D10)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="37" t="s">
         <v>6</v>
       </c>
       <c r="R8" s="38">
         <f>IF(COUNTA(Proyecto!$K$9:$K$28)=0,NA(),COUNTIF(Proyecto!$K$9:$K$28,Reportes!Q8)/COUNTA(Proyecto!$K$9:$K$28))</f>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
@@ -13466,10 +13466,10 @@
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
-      <c r="F24" s="69" t="s">
+      <c r="F24" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="69"/>
+      <c r="G24" s="77"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -13553,8 +13553,8 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
